--- a/4/Tipo de Cambio Real Chile 1984 a 2021 - Trimestral.xlsx
+++ b/4/Tipo de Cambio Real Chile 1984 a 2021 - Trimestral.xlsx
@@ -3737,16 +3737,16 @@
         <v>724.29</v>
       </c>
       <c r="C150">
-        <v>98.72</v>
+        <v>98.69</v>
       </c>
       <c r="D150">
-        <v>82.3</v>
+        <v>82.23</v>
       </c>
       <c r="E150">
-        <v>248.15</v>
+        <v>248.05</v>
       </c>
       <c r="F150">
-        <v>206.88</v>
+        <v>206.68</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3757,16 +3757,16 @@
         <v>715.42</v>
       </c>
       <c r="C151">
-        <v>99.37</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D151">
-        <v>83.95999999999999</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="E151">
-        <v>255.21</v>
+        <v>255.3</v>
       </c>
       <c r="F151">
-        <v>215.64</v>
+        <v>215.77</v>
       </c>
     </row>
   </sheetData>

--- a/4/Tipo de Cambio Real Chile 1984 a 2021 - Trimestral.xlsx
+++ b/4/Tipo de Cambio Real Chile 1984 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>Serie</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3683,10 +3686,10 @@
         <v>85.95</v>
       </c>
       <c r="E147">
-        <v>221.64</v>
+        <v>221.65</v>
       </c>
       <c r="F147">
-        <v>185.36</v>
+        <v>185.37</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3706,7 +3709,7 @@
         <v>229.76</v>
       </c>
       <c r="F148">
-        <v>193.48</v>
+        <v>193.49</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3717,16 +3720,16 @@
         <v>762.4</v>
       </c>
       <c r="C149">
-        <v>100.87</v>
+        <v>100.86</v>
       </c>
       <c r="D149">
-        <v>83.62</v>
+        <v>83.61</v>
       </c>
       <c r="E149">
-        <v>238.36</v>
+        <v>238.34</v>
       </c>
       <c r="F149">
-        <v>197.59</v>
+        <v>197.56</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3757,16 +3760,24 @@
         <v>715.42</v>
       </c>
       <c r="C151">
-        <v>99.40000000000001</v>
+        <v>99.36</v>
       </c>
       <c r="D151">
-        <v>84.01000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E151">
-        <v>255.3</v>
+        <v>255.19</v>
       </c>
       <c r="F151">
-        <v>215.77</v>
+        <v>215.83</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152">
+        <v>771.4299999999999</v>
       </c>
     </row>
   </sheetData>

--- a/4/Tipo de Cambio Real Chile 1984 a 2021 - Trimestral.xlsx
+++ b/4/Tipo de Cambio Real Chile 1984 a 2021 - Trimestral.xlsx
@@ -3626,10 +3626,10 @@
         <v>78.81</v>
       </c>
       <c r="E144">
-        <v>232.37</v>
+        <v>232.36</v>
       </c>
       <c r="F144">
-        <v>193.64</v>
+        <v>193.63</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3640,16 +3640,16 @@
         <v>754.86</v>
       </c>
       <c r="C145">
-        <v>100.35</v>
+        <v>100.33</v>
       </c>
       <c r="D145">
-        <v>83.40000000000001</v>
+        <v>83.36</v>
       </c>
       <c r="E145">
-        <v>232.46</v>
+        <v>232.42</v>
       </c>
       <c r="F145">
-        <v>193.21</v>
+        <v>193.13</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3660,16 +3660,16 @@
         <v>803</v>
       </c>
       <c r="C146">
-        <v>105.23</v>
+        <v>105.47</v>
       </c>
       <c r="D146">
-        <v>86.7</v>
+        <v>87.19</v>
       </c>
       <c r="E146">
-        <v>232.18</v>
+        <v>232.69</v>
       </c>
       <c r="F146">
-        <v>191.26</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3680,16 +3680,16 @@
         <v>823.01</v>
       </c>
       <c r="C147">
-        <v>102.78</v>
+        <v>103.62</v>
       </c>
       <c r="D147">
-        <v>85.95</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="E147">
-        <v>221.65</v>
+        <v>223.44</v>
       </c>
       <c r="F147">
-        <v>185.37</v>
+        <v>189.01</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3700,16 +3700,16 @@
         <v>780.99</v>
       </c>
       <c r="C148">
-        <v>100.85</v>
+        <v>101.29</v>
       </c>
       <c r="D148">
-        <v>84.93000000000001</v>
+        <v>85.83</v>
       </c>
       <c r="E148">
-        <v>229.76</v>
+        <v>230.76</v>
       </c>
       <c r="F148">
-        <v>193.49</v>
+        <v>195.54</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3720,16 +3720,16 @@
         <v>762.4</v>
       </c>
       <c r="C149">
-        <v>100.86</v>
+        <v>101.03</v>
       </c>
       <c r="D149">
-        <v>83.61</v>
+        <v>83.95999999999999</v>
       </c>
       <c r="E149">
-        <v>238.34</v>
+        <v>238.74</v>
       </c>
       <c r="F149">
-        <v>197.56</v>
+        <v>198.37</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3740,16 +3740,16 @@
         <v>724.29</v>
       </c>
       <c r="C150">
-        <v>98.69</v>
+        <v>98.18000000000001</v>
       </c>
       <c r="D150">
-        <v>82.23</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="E150">
-        <v>248.05</v>
+        <v>246.77</v>
       </c>
       <c r="F150">
-        <v>206.68</v>
+        <v>203.97</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3760,16 +3760,16 @@
         <v>715.42</v>
       </c>
       <c r="C151">
-        <v>99.36</v>
+        <v>98.16</v>
       </c>
       <c r="D151">
-        <v>84.04000000000001</v>
+        <v>81.47</v>
       </c>
       <c r="E151">
-        <v>255.19</v>
+        <v>252.12</v>
       </c>
       <c r="F151">
-        <v>215.83</v>
+        <v>209.24</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3778,6 +3778,18 @@
       </c>
       <c r="B152">
         <v>771.4299999999999</v>
+      </c>
+      <c r="C152">
+        <v>105.09</v>
+      </c>
+      <c r="D152">
+        <v>87.7</v>
+      </c>
+      <c r="E152">
+        <v>254.53</v>
+      </c>
+      <c r="F152">
+        <v>212.42</v>
       </c>
     </row>
   </sheetData>
